--- a/RegisterList/PanelKOVK_KommRef.xlsx
+++ b/RegisterList/PanelKOVK_KommRef.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="525">
   <si>
-    <t>Variable</t>
+    <t>channel_id</t>
   </si>
   <si>
     <t>Type</t>
@@ -3558,7 +3558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="7" t="s">
         <v>155</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="7" t="s">
         <v>157</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="7" t="s">
         <v>159</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="7" t="s">
         <v>161</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="11" t="s">
         <v>163</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="3" t="s">
         <v>165</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="7" t="s">
         <v>167</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="7" t="s">
         <v>169</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="7" t="s">
         <v>171</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="7" t="s">
         <v>173</v>
       </c>
